--- a/ogn/bin/config/cfg/任务.xlsx
+++ b/ogn/bin/config/cfg/任务.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\pro_0\frame\bin\World\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ogn\ogn\bin\config\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>#comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FLASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务1第0步</t>
   </si>
   <si>
@@ -144,6 +136,20 @@
   </si>
   <si>
     <t>任务1第3步</t>
+  </si>
+  <si>
+    <t>NextTaskId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrevTaskId</t>
+  </si>
+  <si>
+    <t>TaskStepId</t>
+  </si>
+  <si>
+    <t>IsMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="F4" sqref="F4:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,27 +557,39 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -579,205 +597,322 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +927,14 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E29"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="31.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -805,13 +944,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -821,11 +960,11 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -839,24 +978,24 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -866,11 +1005,11 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -880,11 +1019,11 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -894,11 +1033,11 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -908,11 +1047,11 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -922,11 +1061,11 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -936,11 +1075,11 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
         <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -950,11 +1089,11 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
         <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -964,11 +1103,11 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
         <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -978,11 +1117,11 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
         <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -992,11 +1131,11 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
         <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1006,11 +1145,11 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
         <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1020,11 +1159,11 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
         <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1034,11 +1173,11 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
         <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1048,11 +1187,11 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
         <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1062,11 +1201,11 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
         <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1076,11 +1215,11 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
         <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1090,11 +1229,11 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
         <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1104,11 +1243,11 @@
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
         <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1118,11 +1257,11 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
         <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1132,11 +1271,11 @@
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
         <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1146,11 +1285,11 @@
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
         <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1160,11 +1299,11 @@
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
         <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1174,11 +1313,11 @@
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
         <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1188,11 +1327,11 @@
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
         <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1202,11 +1341,11 @@
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
         <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
